--- a/tests/testing_files/conversion_comparison_type_regex_or_exact_unique_test.xlsx
+++ b/tests/testing_files/conversion_comparison_type_regex_or_exact_unique_test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA43D5DE-DFE3-4105-894A-6C109448C61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B0285-451E-418B-A606-FF66A615612A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2145" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="3780" yWindow="3120" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
-    <sheet name="#tagging" sheetId="4" r:id="rId2"/>
-    <sheet name="#export" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="#tagging" sheetId="4" r:id="rId3"/>
+    <sheet name="#export" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="all_samples">#REF!</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>NA</t>
   </si>
@@ -134,9 +135,6 @@
   </si>
   <si>
     <t>#measurement.assignment</t>
-  </si>
-  <si>
-    <t>#measurement.compound</t>
   </si>
   <si>
     <t>#measurement.formula</t>
@@ -257,19 +255,37 @@
     <t>#measurement.formula.assign</t>
   </si>
   <si>
+    <t>#comparison=regex|exact</t>
+  </si>
+  <si>
+    <t>#unique=true</t>
+  </si>
+  <si>
     <t>r'\(S\)\-2\-Acetolactate_Glutaric acid_Methylsuccinic acid_MP_NoStd'</t>
   </si>
   <si>
-    <t>qwer</t>
-  </si>
-  <si>
-    <t>zxcv</t>
-  </si>
-  <si>
-    <t>#comparison=regex|exact</t>
-  </si>
-  <si>
-    <t>#unique=true</t>
+    <t>*#measurement.compound</t>
+  </si>
+  <si>
+    <t>#measurement.assignment.assign</t>
+  </si>
+  <si>
+    <t>#unique</t>
+  </si>
+  <si>
+    <t>#comparison</t>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <t>regex</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -321,8 +337,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,6 +357,117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C061DC78-5727-51C6-F1E7-CD85DE9CFDD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="1190625"/>
+          <a:ext cx="3524250" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Message is printed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> for every additional record that matches after first is found, so too many messages for one conversion.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Uniqueness is tracked by matching field and value, disregards the field changed by the match. Needs to track based on the field being changed, not the one being matched.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>levenshtein will not change any values unless there is a unique match, but regex and exact both change the first value they come across.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>If a unique=true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> is matched first then a unique=false won't match to the same one.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8067F3B6-BC85-4627-B925-1366E7FE6A62}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -650,6 +778,7 @@
     <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,37 +789,46 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
+      <c r="C5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -700,11 +838,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81758818-20CC-4509-8C4B-3C3AC1D9C033}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FFFD15-87D9-4AFC-82C0-CA4CE918806E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -714,7 +966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -722,83 +974,83 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>52</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>53</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>54</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>55</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>56</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>57</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
         <v>59</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>60</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>63</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>64</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>65</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>66</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>67</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="s">
         <v>68</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -814,7 +1066,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -822,7 +1074,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -833,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -841,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -854,10 +1106,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -865,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -873,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -881,7 +1133,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -889,20 +1141,20 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +1162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A91633-EF22-4FB2-80F3-5ACFB40D0097}">
   <dimension ref="A1:S3"/>
   <sheetViews>

--- a/tests/testing_files/conversion_comparison_type_regex_or_exact_unique_test.xlsx
+++ b/tests/testing_files/conversion_comparison_type_regex_or_exact_unique_test.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B0285-451E-418B-A606-FF66A615612A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9DEAFC-15EB-4D9D-9E9D-B8C6C1C3AAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3120" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="3120" yWindow="1830" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
-    <sheet name="#tagging" sheetId="4" r:id="rId3"/>
-    <sheet name="#export" sheetId="8" r:id="rId4"/>
+    <sheet name="#tagging" sheetId="4" r:id="rId2"/>
+    <sheet name="#export" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="all_samples">#REF!</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>NA</t>
   </si>
@@ -268,24 +267,6 @@
   </si>
   <si>
     <t>#measurement.assignment.assign</t>
-  </si>
-  <si>
-    <t>#unique</t>
-  </si>
-  <si>
-    <t>#comparison</t>
-  </si>
-  <si>
-    <t>exact</t>
-  </si>
-  <si>
-    <t>regex</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
 </sst>
 </file>
@@ -337,9 +318,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,117 +337,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C061DC78-5727-51C6-F1E7-CD85DE9CFDD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7905750" y="1190625"/>
-          <a:ext cx="3524250" cy="2733675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Message is printed</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> for every additional record that matches after first is found, so too many messages for one conversion.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Uniqueness is tracked by matching field and value, disregards the field changed by the match. Needs to track based on the field being changed, not the one being matched.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>levenshtein will not change any values unless there is a unique match, but regex and exact both change the first value they come across.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>If a unique=true</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> is matched first then a unique=false won't match to the same one.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,7 +639,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -838,125 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81758818-20CC-4509-8C4B-3C3AC1D9C033}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FFFD15-87D9-4AFC-82C0-CA4CE918806E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1162,7 +917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A91633-EF22-4FB2-80F3-5ACFB40D0097}">
   <dimension ref="A1:S3"/>
   <sheetViews>
